--- a/output/Media_analise/media/Compositions/@saidaouter_Sulfate.xlsx
+++ b/output/Media_analise/media/Compositions/@saidaouter_Sulfate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anabe\OneDrive\Área de Trabalho\faculdade\@Lab\Bisch\V.cholerae1\V. cholerae metabolism\output\Media_analise\media\Compositions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cb5363e8f87d921c/Área de Trabalho/faculdade/@Lab/Bisch/V.cholerae1/V. cholerae metabolism/output/Media_analise/media/Compositions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D39E59D-F503-4EBB-8B3C-64D8C5305A21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{9D39E59D-F503-4EBB-8B3C-64D8C5305A21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6EB06004-F3E3-49D2-936A-8098B8469B78}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2126,13 +2126,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:FP188"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView topLeftCell="BA57" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:172" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:172" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2650,7 +2650,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="2" spans="1:172" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:172" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>171</v>
       </c>
@@ -3168,7 +3168,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="3" spans="1:172" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:172" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>172</v>
       </c>
@@ -3686,7 +3686,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="4" spans="1:172" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:172" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>173</v>
       </c>
@@ -4204,7 +4204,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="5" spans="1:172" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:172" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>175</v>
       </c>
@@ -4722,7 +4722,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="6" spans="1:172" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:172" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>176</v>
       </c>
@@ -5240,7 +5240,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="7" spans="1:172" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:172" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>177</v>
       </c>
@@ -5758,7 +5758,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="8" spans="1:172" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:172" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>178</v>
       </c>
@@ -6276,7 +6276,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="9" spans="1:172" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:172" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>179</v>
       </c>
@@ -6794,7 +6794,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="10" spans="1:172" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:172" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>180</v>
       </c>
@@ -7312,7 +7312,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="11" spans="1:172" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:172" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>181</v>
       </c>
@@ -7830,7 +7830,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="12" spans="1:172" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:172" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>182</v>
       </c>
@@ -8348,7 +8348,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="13" spans="1:172" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:172" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>183</v>
       </c>
@@ -8866,7 +8866,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="14" spans="1:172" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:172" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>184</v>
       </c>
@@ -9384,7 +9384,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="15" spans="1:172" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:172" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>185</v>
       </c>
@@ -9902,7 +9902,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="16" spans="1:172" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:172" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>186</v>
       </c>
@@ -10420,7 +10420,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="17" spans="1:172" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:172" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>187</v>
       </c>
@@ -10938,7 +10938,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="18" spans="1:172" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:172" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>188</v>
       </c>
@@ -11456,7 +11456,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="19" spans="1:172" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:172" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>189</v>
       </c>
@@ -11974,7 +11974,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="20" spans="1:172" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:172" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>174</v>
       </c>
@@ -11985,7 +11985,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="21" spans="1:172" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:172" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>190</v>
       </c>
@@ -11996,7 +11996,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="22" spans="1:172" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:172" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>191</v>
       </c>
@@ -12007,7 +12007,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="23" spans="1:172" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:172" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>192</v>
       </c>
@@ -12018,7 +12018,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="24" spans="1:172" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:172" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>193</v>
       </c>
@@ -12029,7 +12029,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="25" spans="1:172" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:172" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>194</v>
       </c>
@@ -12040,7 +12040,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="26" spans="1:172" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:172" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>195</v>
       </c>
@@ -12051,7 +12051,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="27" spans="1:172" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:172" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>196</v>
       </c>
@@ -12062,7 +12062,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="28" spans="1:172" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:172" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>197</v>
       </c>
@@ -12073,7 +12073,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="29" spans="1:172" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:172" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>198</v>
       </c>
@@ -12084,7 +12084,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="30" spans="1:172" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:172" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>199</v>
       </c>
@@ -12095,7 +12095,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="31" spans="1:172" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:172" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>200</v>
       </c>
@@ -12106,7 +12106,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="32" spans="1:172" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:172" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>201</v>
       </c>
@@ -12117,7 +12117,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>202</v>
       </c>
@@ -12128,7 +12128,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>203</v>
       </c>
@@ -12139,7 +12139,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>204</v>
       </c>
@@ -12150,7 +12150,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>205</v>
       </c>
@@ -12161,7 +12161,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>206</v>
       </c>
@@ -12172,7 +12172,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>207</v>
       </c>
@@ -12183,7 +12183,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>208</v>
       </c>
@@ -12194,7 +12194,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>209</v>
       </c>
@@ -12205,7 +12205,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>210</v>
       </c>
@@ -12216,7 +12216,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>211</v>
       </c>
@@ -12227,7 +12227,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>212</v>
       </c>
@@ -12238,7 +12238,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>213</v>
       </c>
@@ -12249,7 +12249,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>214</v>
       </c>
@@ -12260,7 +12260,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>215</v>
       </c>
@@ -12271,7 +12271,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>216</v>
       </c>
@@ -12282,7 +12282,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>217</v>
       </c>
@@ -12293,7 +12293,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="49" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>218</v>
       </c>
@@ -12304,7 +12304,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="50" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>219</v>
       </c>
@@ -12315,7 +12315,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="51" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>220</v>
       </c>
@@ -12326,7 +12326,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="52" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>221</v>
       </c>
@@ -12337,7 +12337,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="53" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>222</v>
       </c>
@@ -12348,7 +12348,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="54" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>223</v>
       </c>
@@ -12359,7 +12359,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="55" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>224</v>
       </c>
@@ -12370,7 +12370,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="56" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>225</v>
       </c>
@@ -12381,7 +12381,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="57" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>226</v>
       </c>
@@ -12392,7 +12392,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="58" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>227</v>
       </c>
@@ -12403,7 +12403,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="59" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>228</v>
       </c>
@@ -12414,7 +12414,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="60" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>229</v>
       </c>
@@ -12425,7 +12425,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="61" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>230</v>
       </c>
@@ -12436,7 +12436,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="62" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>231</v>
       </c>
@@ -12447,7 +12447,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="63" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>232</v>
       </c>
@@ -12458,7 +12458,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="64" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>233</v>
       </c>
@@ -12469,7 +12469,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="65" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>234</v>
       </c>
@@ -12480,7 +12480,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="66" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>235</v>
       </c>
@@ -12491,7 +12491,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="67" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>236</v>
       </c>
@@ -12502,7 +12502,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="68" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>237</v>
       </c>
@@ -12513,7 +12513,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="69" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>238</v>
       </c>
@@ -12524,7 +12524,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="70" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>239</v>
       </c>
@@ -12535,7 +12535,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="71" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>240</v>
       </c>
@@ -12546,7 +12546,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="72" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>241</v>
       </c>
@@ -12557,7 +12557,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="73" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>242</v>
       </c>
@@ -12568,7 +12568,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="74" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>243</v>
       </c>
@@ -12579,7 +12579,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="75" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>244</v>
       </c>
@@ -12590,7 +12590,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="76" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>245</v>
       </c>
@@ -12601,7 +12601,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="77" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>246</v>
       </c>
@@ -12612,7 +12612,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="78" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>247</v>
       </c>
@@ -12623,7 +12623,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="79" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>248</v>
       </c>
@@ -12634,7 +12634,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="80" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>249</v>
       </c>
@@ -12645,7 +12645,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="81" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>250</v>
       </c>
@@ -12656,7 +12656,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="82" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>251</v>
       </c>
@@ -12667,7 +12667,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="83" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>252</v>
       </c>
@@ -12678,7 +12678,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="84" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>253</v>
       </c>
@@ -12689,7 +12689,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="85" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>254</v>
       </c>
@@ -12700,7 +12700,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="86" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>255</v>
       </c>
@@ -12711,7 +12711,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="87" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>256</v>
       </c>
@@ -12722,7 +12722,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="88" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>257</v>
       </c>
@@ -12733,7 +12733,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="89" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>258</v>
       </c>
@@ -12744,7 +12744,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="90" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>259</v>
       </c>
@@ -12755,7 +12755,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="91" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>260</v>
       </c>
@@ -12766,7 +12766,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="92" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>261</v>
       </c>
@@ -12777,7 +12777,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="93" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>262</v>
       </c>
@@ -12788,7 +12788,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="94" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>263</v>
       </c>
@@ -12799,7 +12799,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="95" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>264</v>
       </c>
@@ -12810,7 +12810,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="96" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>265</v>
       </c>
@@ -12821,7 +12821,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="97" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>266</v>
       </c>
@@ -12832,7 +12832,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="98" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>267</v>
       </c>
@@ -12843,7 +12843,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="99" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>268</v>
       </c>
@@ -12854,7 +12854,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="100" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>269</v>
       </c>
@@ -12865,7 +12865,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="101" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>270</v>
       </c>
@@ -12876,7 +12876,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="102" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>271</v>
       </c>
@@ -12887,7 +12887,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="103" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>272</v>
       </c>
@@ -12898,7 +12898,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="104" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>273</v>
       </c>
@@ -12909,7 +12909,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="105" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>274</v>
       </c>
@@ -12920,7 +12920,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="106" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>275</v>
       </c>
@@ -12931,7 +12931,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="107" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>276</v>
       </c>
@@ -12942,7 +12942,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="108" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>277</v>
       </c>
@@ -12953,7 +12953,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="109" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>278</v>
       </c>
@@ -12964,7 +12964,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="110" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>279</v>
       </c>
@@ -12975,7 +12975,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="111" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>280</v>
       </c>
@@ -12986,7 +12986,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="112" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>281</v>
       </c>
@@ -12997,7 +12997,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="113" spans="1:111" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>282</v>
       </c>
@@ -13008,7 +13008,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="114" spans="1:111" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>283</v>
       </c>
@@ -13019,7 +13019,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="115" spans="1:111" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>284</v>
       </c>
@@ -13030,7 +13030,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="116" spans="1:111" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>285</v>
       </c>
@@ -13041,7 +13041,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="117" spans="1:111" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>286</v>
       </c>
@@ -13052,7 +13052,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="118" spans="1:111" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>287</v>
       </c>
@@ -13063,7 +13063,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="119" spans="1:111" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>288</v>
       </c>
@@ -13074,7 +13074,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="120" spans="1:111" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>289</v>
       </c>
@@ -13085,7 +13085,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="121" spans="1:111" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>290</v>
       </c>
@@ -13096,7 +13096,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="122" spans="1:111" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>291</v>
       </c>
@@ -13107,7 +13107,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="123" spans="1:111" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>292</v>
       </c>
@@ -13118,7 +13118,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="124" spans="1:111" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>293</v>
       </c>
@@ -13129,7 +13129,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="125" spans="1:111" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>294</v>
       </c>
@@ -13140,7 +13140,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="126" spans="1:111" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>295</v>
       </c>
@@ -13151,7 +13151,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="127" spans="1:111" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>296</v>
       </c>
@@ -13162,7 +13162,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="128" spans="1:111" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>297</v>
       </c>
@@ -13173,7 +13173,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="129" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>298</v>
       </c>
@@ -13184,7 +13184,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="130" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>299</v>
       </c>
@@ -13195,7 +13195,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="131" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>300</v>
       </c>
@@ -13206,7 +13206,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="132" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>301</v>
       </c>
@@ -13217,7 +13217,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="133" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>302</v>
       </c>
@@ -13228,7 +13228,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="134" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>303</v>
       </c>
@@ -13239,7 +13239,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="135" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>304</v>
       </c>
@@ -13250,7 +13250,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="136" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>305</v>
       </c>
@@ -13261,7 +13261,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="137" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>306</v>
       </c>
@@ -13272,7 +13272,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="138" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>307</v>
       </c>
@@ -13283,7 +13283,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="139" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>308</v>
       </c>
@@ -13294,7 +13294,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="140" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>309</v>
       </c>
@@ -13305,7 +13305,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="141" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>310</v>
       </c>
@@ -13316,7 +13316,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="142" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>311</v>
       </c>
@@ -13327,7 +13327,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="143" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>312</v>
       </c>
@@ -13338,7 +13338,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="144" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>313</v>
       </c>
@@ -13349,7 +13349,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="145" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:144" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>314</v>
       </c>
@@ -13360,7 +13360,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="146" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:144" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>315</v>
       </c>
@@ -13371,7 +13371,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="147" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:144" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>316</v>
       </c>
@@ -13382,7 +13382,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="148" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:144" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>317</v>
       </c>
@@ -13393,7 +13393,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="149" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:144" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>318</v>
       </c>
@@ -13404,7 +13404,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="150" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:144" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>319</v>
       </c>
@@ -13415,7 +13415,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="151" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:144" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>320</v>
       </c>
@@ -13426,7 +13426,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="152" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:144" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>321</v>
       </c>
@@ -13437,7 +13437,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="153" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:144" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>322</v>
       </c>
@@ -13448,7 +13448,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="154" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:144" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>323</v>
       </c>
@@ -13459,7 +13459,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="155" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:144" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>324</v>
       </c>
@@ -13470,7 +13470,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="156" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:144" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>325</v>
       </c>
@@ -13481,7 +13481,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="157" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:144" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>326</v>
       </c>
@@ -13492,7 +13492,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="158" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:144" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>327</v>
       </c>
@@ -13503,7 +13503,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="159" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:144" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>328</v>
       </c>
@@ -13514,7 +13514,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="160" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:144" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>329</v>
       </c>
@@ -13525,7 +13525,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="161" spans="1:160" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:160" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>330</v>
       </c>
@@ -13536,7 +13536,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="162" spans="1:160" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:160" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>331</v>
       </c>
@@ -13547,7 +13547,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="163" spans="1:160" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:160" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>332</v>
       </c>
@@ -13558,7 +13558,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="164" spans="1:160" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:160" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>333</v>
       </c>
@@ -13569,7 +13569,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="165" spans="1:160" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:160" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>334</v>
       </c>
@@ -13580,7 +13580,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="166" spans="1:160" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:160" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>335</v>
       </c>
@@ -13591,7 +13591,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="167" spans="1:160" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:160" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>336</v>
       </c>
@@ -13602,7 +13602,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="168" spans="1:160" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:160" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>337</v>
       </c>
@@ -13613,7 +13613,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="169" spans="1:160" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:160" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>338</v>
       </c>
@@ -13624,7 +13624,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="170" spans="1:160" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:160" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>339</v>
       </c>
@@ -13635,7 +13635,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="171" spans="1:160" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:160" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>340</v>
       </c>
@@ -13646,7 +13646,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="172" spans="1:160" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:160" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>341</v>
       </c>
@@ -13657,7 +13657,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="173" spans="1:160" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:160" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>342</v>
       </c>
@@ -13668,7 +13668,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="174" spans="1:160" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:160" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>343</v>
       </c>
@@ -13679,7 +13679,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="175" spans="1:160" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:160" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>344</v>
       </c>
@@ -13690,7 +13690,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="176" spans="1:160" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:160" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>345</v>
       </c>
@@ -13701,7 +13701,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="177" spans="1:172" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:172" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>346</v>
       </c>
@@ -13712,7 +13712,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="178" spans="1:172" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:172" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>347</v>
       </c>
@@ -13723,7 +13723,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="179" spans="1:172" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:172" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>348</v>
       </c>
@@ -13734,7 +13734,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="180" spans="1:172" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:172" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>349</v>
       </c>
@@ -13745,7 +13745,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="181" spans="1:172" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:172" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>350</v>
       </c>
@@ -13756,7 +13756,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="182" spans="1:172" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:172" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>351</v>
       </c>
@@ -13767,7 +13767,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="183" spans="1:172" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:172" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>352</v>
       </c>
@@ -13778,7 +13778,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="184" spans="1:172" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:172" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>353</v>
       </c>
@@ -13789,7 +13789,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="185" spans="1:172" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:172" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>354</v>
       </c>
@@ -13800,7 +13800,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="186" spans="1:172" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:172" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>355</v>
       </c>
@@ -13811,7 +13811,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="187" spans="1:172" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:172" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>356</v>
       </c>
@@ -13822,7 +13822,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="188" spans="1:172" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:172" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>357</v>
       </c>
@@ -13842,13 +13842,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A4418F0-C640-46A6-940D-1860CEA843C9}">
   <dimension ref="A1:GF171"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="FV157" workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="30.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:188" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:188" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -14414,7 +14417,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="2" spans="1:188" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:188" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -14476,7 +14479,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="3" spans="1:188" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:188" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -14538,7 +14541,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="4" spans="1:188" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:188" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -14600,7 +14603,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="5" spans="1:188" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:188" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -14662,7 +14665,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="6" spans="1:188" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:188" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -14724,7 +14727,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="7" spans="1:188" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:188" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -14786,7 +14789,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="8" spans="1:188" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:188" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -14848,7 +14851,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="9" spans="1:188" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:188" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -14910,7 +14913,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="10" spans="1:188" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:188" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -14972,7 +14975,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="11" spans="1:188" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:188" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -15034,7 +15037,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="12" spans="1:188" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:188" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -15096,7 +15099,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="13" spans="1:188" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:188" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -15158,7 +15161,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="14" spans="1:188" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:188" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -15220,7 +15223,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="15" spans="1:188" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:188" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -15282,7 +15285,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="16" spans="1:188" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:188" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -15344,7 +15347,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="17" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -15406,7 +15409,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="18" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -15468,7 +15471,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="19" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -15530,7 +15533,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="20" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -15592,7 +15595,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="21" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -15654,7 +15657,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="22" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -15716,7 +15719,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="23" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
@@ -15778,7 +15781,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="24" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
@@ -15840,7 +15843,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="25" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
@@ -15902,7 +15905,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="26" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
@@ -15964,7 +15967,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="27" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
@@ -16026,7 +16029,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="28" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
@@ -16088,7 +16091,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="29" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
@@ -16150,7 +16153,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="30" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
@@ -16212,7 +16215,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="31" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
@@ -16274,7 +16277,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="32" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
@@ -16336,7 +16339,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="33" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
@@ -16398,7 +16401,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="34" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
@@ -16460,7 +16463,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="35" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
@@ -16522,7 +16525,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="36" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
@@ -16584,7 +16587,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="37" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
@@ -16646,7 +16649,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="38" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
@@ -16708,7 +16711,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="39" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
@@ -16770,7 +16773,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="40" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>39</v>
       </c>
@@ -16832,7 +16835,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="41" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>40</v>
       </c>
@@ -16894,7 +16897,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="42" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>41</v>
       </c>
@@ -16956,7 +16959,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="43" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>42</v>
       </c>
@@ -17018,7 +17021,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="44" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>43</v>
       </c>
@@ -17080,7 +17083,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="45" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>44</v>
       </c>
@@ -17142,7 +17145,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="46" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>45</v>
       </c>
@@ -17204,7 +17207,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="47" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>46</v>
       </c>
@@ -17266,7 +17269,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="48" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>47</v>
       </c>
@@ -17328,7 +17331,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="49" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>48</v>
       </c>
@@ -17390,7 +17393,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="50" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>49</v>
       </c>
@@ -17452,7 +17455,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="51" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>50</v>
       </c>
@@ -17514,7 +17517,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="52" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>51</v>
       </c>
@@ -17576,7 +17579,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="53" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>52</v>
       </c>
@@ -17638,7 +17641,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="54" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>53</v>
       </c>
@@ -17700,7 +17703,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="55" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>54</v>
       </c>
@@ -17762,7 +17765,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="56" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>55</v>
       </c>
@@ -17824,7 +17827,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="57" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>56</v>
       </c>
@@ -17886,7 +17889,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="58" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>57</v>
       </c>
@@ -17948,7 +17951,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="59" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>58</v>
       </c>
@@ -18010,7 +18013,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="60" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>59</v>
       </c>
@@ -18072,7 +18075,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="61" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>60</v>
       </c>
@@ -18134,7 +18137,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="62" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>61</v>
       </c>
@@ -18196,7 +18199,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="63" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>62</v>
       </c>
@@ -18258,7 +18261,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="64" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>63</v>
       </c>
@@ -18320,7 +18323,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="65" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>64</v>
       </c>
@@ -18382,7 +18385,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="66" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>65</v>
       </c>
@@ -18444,7 +18447,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="67" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>66</v>
       </c>
@@ -18506,7 +18509,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="68" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>67</v>
       </c>
@@ -18568,7 +18571,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="69" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>68</v>
       </c>
@@ -18630,7 +18633,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="70" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>69</v>
       </c>
@@ -18692,7 +18695,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="71" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>70</v>
       </c>
@@ -18754,7 +18757,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="72" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>71</v>
       </c>
@@ -18816,7 +18819,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="73" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>72</v>
       </c>
@@ -18878,7 +18881,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="74" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>73</v>
       </c>
@@ -18940,7 +18943,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="75" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>74</v>
       </c>
@@ -19002,7 +19005,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="76" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>75</v>
       </c>
@@ -19064,7 +19067,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="77" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>76</v>
       </c>
@@ -19126,7 +19129,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="78" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>77</v>
       </c>
@@ -19188,7 +19191,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="79" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>78</v>
       </c>
@@ -19250,7 +19253,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="80" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>79</v>
       </c>
@@ -19312,7 +19315,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="81" spans="1:114" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>80</v>
       </c>
@@ -19374,7 +19377,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="82" spans="1:114" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>81</v>
       </c>
@@ -19436,7 +19439,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="83" spans="1:114" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>82</v>
       </c>
@@ -19498,7 +19501,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="84" spans="1:114" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>83</v>
       </c>
@@ -19560,7 +19563,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="85" spans="1:114" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>84</v>
       </c>
@@ -19622,7 +19625,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="86" spans="1:114" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>85</v>
       </c>
@@ -19684,7 +19687,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="87" spans="1:114" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>86</v>
       </c>
@@ -19746,7 +19749,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="88" spans="1:114" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>87</v>
       </c>
@@ -19808,7 +19811,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="89" spans="1:114" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>88</v>
       </c>
@@ -19870,7 +19873,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="90" spans="1:114" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>89</v>
       </c>
@@ -19932,7 +19935,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="91" spans="1:114" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>90</v>
       </c>
@@ -19994,7 +19997,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="92" spans="1:114" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>91</v>
       </c>
@@ -20056,7 +20059,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="93" spans="1:114" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>92</v>
       </c>
@@ -20118,7 +20121,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="94" spans="1:114" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>93</v>
       </c>
@@ -20180,7 +20183,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="95" spans="1:114" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>94</v>
       </c>
@@ -20242,7 +20245,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="96" spans="1:114" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>95</v>
       </c>
@@ -20304,7 +20307,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="97" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:130" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>96</v>
       </c>
@@ -20366,7 +20369,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="98" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:130" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>97</v>
       </c>
@@ -20428,7 +20431,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="99" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:130" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>98</v>
       </c>
@@ -20490,7 +20493,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="100" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:130" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>99</v>
       </c>
@@ -20552,7 +20555,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="101" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:130" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>100</v>
       </c>
@@ -20614,7 +20617,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="102" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:130" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>101</v>
       </c>
@@ -20676,7 +20679,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="103" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:130" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>102</v>
       </c>
@@ -20738,7 +20741,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="104" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:130" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>103</v>
       </c>
@@ -20800,7 +20803,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="105" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:130" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>104</v>
       </c>
@@ -20862,7 +20865,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="106" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:130" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>105</v>
       </c>
@@ -20924,7 +20927,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="107" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:130" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>106</v>
       </c>
@@ -20986,7 +20989,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="108" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:130" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>107</v>
       </c>
@@ -21048,7 +21051,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="109" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:130" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>108</v>
       </c>
@@ -21110,7 +21113,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="110" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:130" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>109</v>
       </c>
@@ -21172,7 +21175,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="111" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:130" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>110</v>
       </c>
@@ -21234,7 +21237,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="112" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:130" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>111</v>
       </c>
@@ -21296,7 +21299,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="113" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:145" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>112</v>
       </c>
@@ -21358,7 +21361,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="114" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:145" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>113</v>
       </c>
@@ -21420,7 +21423,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="115" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:145" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>114</v>
       </c>
@@ -21482,7 +21485,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="116" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:145" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>115</v>
       </c>
@@ -21544,7 +21547,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="117" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:145" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>116</v>
       </c>
@@ -21606,7 +21609,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="118" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:145" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>117</v>
       </c>
@@ -21668,7 +21671,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="119" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:145" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>118</v>
       </c>
@@ -21730,7 +21733,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="120" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:145" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>119</v>
       </c>
@@ -21789,7 +21792,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="121" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:145" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>120</v>
       </c>
@@ -21851,7 +21854,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="122" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:145" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>121</v>
       </c>
@@ -21913,7 +21916,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="123" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:145" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>122</v>
       </c>
@@ -21975,7 +21978,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="124" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:145" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>123</v>
       </c>
@@ -22037,7 +22040,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="125" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:145" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>124</v>
       </c>
@@ -22099,7 +22102,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="126" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:145" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>125</v>
       </c>
@@ -22161,7 +22164,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="127" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:145" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>126</v>
       </c>
@@ -22223,7 +22226,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="128" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:145" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>127</v>
       </c>
@@ -22285,7 +22288,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="129" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:161" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>128</v>
       </c>
@@ -22347,7 +22350,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="130" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:161" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>129</v>
       </c>
@@ -22409,7 +22412,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="131" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:161" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>130</v>
       </c>
@@ -22471,7 +22474,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="132" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:161" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>131</v>
       </c>
@@ -22533,7 +22536,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="133" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:161" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>132</v>
       </c>
@@ -22595,7 +22598,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="134" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:161" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>133</v>
       </c>
@@ -22657,7 +22660,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="135" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:161" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>134</v>
       </c>
@@ -22719,7 +22722,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="136" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:161" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>135</v>
       </c>
@@ -22781,7 +22784,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="137" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:161" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>136</v>
       </c>
@@ -22843,7 +22846,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="138" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:161" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>137</v>
       </c>
@@ -22905,7 +22908,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="139" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:161" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>138</v>
       </c>
@@ -22967,7 +22970,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="140" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:161" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>139</v>
       </c>
@@ -23029,7 +23032,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="141" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:161" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>140</v>
       </c>
@@ -23091,7 +23094,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="142" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:161" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>141</v>
       </c>
@@ -23153,7 +23156,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="143" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:161" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>142</v>
       </c>
@@ -23215,7 +23218,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="144" spans="1:161" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:161" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>143</v>
       </c>
@@ -23277,7 +23280,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="145" spans="1:177" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:177" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>144</v>
       </c>
@@ -23339,7 +23342,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="146" spans="1:177" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:177" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>145</v>
       </c>
@@ -23401,7 +23404,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="147" spans="1:177" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:177" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>146</v>
       </c>
@@ -23463,7 +23466,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="148" spans="1:177" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:177" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>147</v>
       </c>
@@ -23525,7 +23528,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="149" spans="1:177" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:177" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>148</v>
       </c>
@@ -23587,7 +23590,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="150" spans="1:177" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:177" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>149</v>
       </c>
@@ -23649,7 +23652,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="151" spans="1:177" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:177" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>150</v>
       </c>
@@ -23711,7 +23714,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="152" spans="1:177" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:177" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
         <v>151</v>
       </c>
@@ -23773,7 +23776,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="153" spans="1:177" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:177" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
         <v>152</v>
       </c>
@@ -23835,7 +23838,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="154" spans="1:177" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:177" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
         <v>153</v>
       </c>
@@ -23897,7 +23900,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="155" spans="1:177" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:177" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
         <v>154</v>
       </c>
@@ -23959,7 +23962,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="156" spans="1:177" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:177" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>155</v>
       </c>
@@ -24021,7 +24024,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="157" spans="1:177" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:177" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
         <v>156</v>
       </c>
@@ -24083,7 +24086,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="158" spans="1:177" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:177" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
         <v>157</v>
       </c>
@@ -24145,7 +24148,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="159" spans="1:177" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:177" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
         <v>158</v>
       </c>
@@ -24207,7 +24210,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="160" spans="1:177" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:177" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
         <v>159</v>
       </c>
@@ -24269,7 +24272,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="161" spans="1:188" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:188" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
         <v>160</v>
       </c>
@@ -24331,7 +24334,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="162" spans="1:188" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:188" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
         <v>161</v>
       </c>
@@ -24393,7 +24396,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="163" spans="1:188" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:188" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
         <v>162</v>
       </c>
@@ -24455,7 +24458,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="164" spans="1:188" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:188" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>163</v>
       </c>
@@ -24517,7 +24520,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="165" spans="1:188" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:188" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
         <v>164</v>
       </c>
@@ -24579,7 +24582,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="166" spans="1:188" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:188" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
         <v>165</v>
       </c>
@@ -24641,7 +24644,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="167" spans="1:188" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:188" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
         <v>166</v>
       </c>
@@ -24703,7 +24706,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="168" spans="1:188" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:188" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
         <v>167</v>
       </c>
@@ -24765,7 +24768,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="169" spans="1:188" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:188" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
         <v>168</v>
       </c>
@@ -24827,7 +24830,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="170" spans="1:188" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:188" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
         <v>169</v>
       </c>
@@ -24889,7 +24892,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="171" spans="1:188" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:188" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
         <v>170</v>
       </c>
@@ -24964,9 +24967,9 @@
       <selection sqref="A1:S171"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -25025,7 +25028,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -25084,7 +25087,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -25143,7 +25146,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -25202,7 +25205,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -25261,7 +25264,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -25320,7 +25323,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -25379,7 +25382,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -25438,7 +25441,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -25497,7 +25500,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -25556,7 +25559,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -25615,7 +25618,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -25674,7 +25677,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -25733,7 +25736,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -25792,7 +25795,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -25851,7 +25854,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -25910,7 +25913,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -25969,7 +25972,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -26028,7 +26031,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -26087,7 +26090,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -26146,7 +26149,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -26205,7 +26208,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -26264,7 +26267,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
@@ -26323,7 +26326,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
@@ -26382,7 +26385,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
@@ -26441,7 +26444,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
@@ -26500,7 +26503,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
@@ -26559,7 +26562,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
@@ -26618,7 +26621,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
@@ -26677,7 +26680,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
@@ -26736,7 +26739,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
@@ -26795,7 +26798,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
@@ -26854,7 +26857,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
@@ -26913,7 +26916,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
@@ -26972,7 +26975,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
@@ -27031,7 +27034,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
@@ -27090,7 +27093,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
@@ -27149,7 +27152,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
@@ -27208,7 +27211,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
@@ -27267,7 +27270,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>39</v>
       </c>
@@ -27326,7 +27329,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>40</v>
       </c>
@@ -27385,7 +27388,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>41</v>
       </c>
@@ -27444,7 +27447,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>42</v>
       </c>
@@ -27503,7 +27506,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>43</v>
       </c>
@@ -27562,7 +27565,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>44</v>
       </c>
@@ -27621,7 +27624,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>45</v>
       </c>
@@ -27680,7 +27683,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>46</v>
       </c>
@@ -27739,7 +27742,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>47</v>
       </c>
@@ -27798,7 +27801,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>48</v>
       </c>
@@ -27857,7 +27860,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>49</v>
       </c>
@@ -27916,7 +27919,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>50</v>
       </c>
@@ -27975,7 +27978,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>51</v>
       </c>
@@ -28034,7 +28037,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>52</v>
       </c>
@@ -28093,7 +28096,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>53</v>
       </c>
@@ -28152,7 +28155,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>54</v>
       </c>
@@ -28211,7 +28214,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>55</v>
       </c>
@@ -28270,7 +28273,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>56</v>
       </c>
@@ -28329,7 +28332,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>57</v>
       </c>
@@ -28388,7 +28391,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>58</v>
       </c>
@@ -28447,7 +28450,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>59</v>
       </c>
@@ -28506,7 +28509,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>60</v>
       </c>
@@ -28565,7 +28568,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>61</v>
       </c>
@@ -28624,7 +28627,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>62</v>
       </c>
@@ -28683,7 +28686,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>63</v>
       </c>
@@ -28742,7 +28745,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>64</v>
       </c>
@@ -28801,7 +28804,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>65</v>
       </c>
@@ -28860,7 +28863,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>66</v>
       </c>
@@ -28919,7 +28922,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>67</v>
       </c>
@@ -28978,7 +28981,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>68</v>
       </c>
@@ -29037,7 +29040,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>69</v>
       </c>
@@ -29096,7 +29099,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>70</v>
       </c>
@@ -29155,7 +29158,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>71</v>
       </c>
@@ -29214,7 +29217,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>72</v>
       </c>
@@ -29273,7 +29276,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>73</v>
       </c>
@@ -29332,7 +29335,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>74</v>
       </c>
@@ -29391,7 +29394,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>75</v>
       </c>
@@ -29450,7 +29453,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>76</v>
       </c>
@@ -29509,7 +29512,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>77</v>
       </c>
@@ -29568,7 +29571,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>78</v>
       </c>
@@ -29627,7 +29630,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>79</v>
       </c>
@@ -29686,7 +29689,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>80</v>
       </c>
@@ -29745,7 +29748,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>81</v>
       </c>
@@ -29804,7 +29807,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>82</v>
       </c>
@@ -29863,7 +29866,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>83</v>
       </c>
@@ -29922,7 +29925,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>84</v>
       </c>
@@ -29981,7 +29984,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>85</v>
       </c>
@@ -30040,7 +30043,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>86</v>
       </c>
@@ -30099,7 +30102,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>87</v>
       </c>
@@ -30158,7 +30161,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>88</v>
       </c>
@@ -30217,7 +30220,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>89</v>
       </c>
@@ -30276,7 +30279,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>90</v>
       </c>
@@ -30335,7 +30338,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>91</v>
       </c>
@@ -30394,7 +30397,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>92</v>
       </c>
@@ -30453,7 +30456,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>93</v>
       </c>
@@ -30512,7 +30515,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>94</v>
       </c>
@@ -30571,7 +30574,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>95</v>
       </c>
@@ -30630,7 +30633,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>96</v>
       </c>
@@ -30689,7 +30692,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>97</v>
       </c>
@@ -30748,7 +30751,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>98</v>
       </c>
@@ -30807,7 +30810,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>99</v>
       </c>
@@ -30866,7 +30869,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>100</v>
       </c>
@@ -30925,7 +30928,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>101</v>
       </c>
@@ -30984,7 +30987,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>102</v>
       </c>
@@ -31043,7 +31046,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>103</v>
       </c>
@@ -31102,7 +31105,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>104</v>
       </c>
@@ -31161,7 +31164,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>105</v>
       </c>
@@ -31220,7 +31223,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>106</v>
       </c>
@@ -31279,7 +31282,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>107</v>
       </c>
@@ -31338,7 +31341,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>108</v>
       </c>
@@ -31397,7 +31400,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>109</v>
       </c>
@@ -31456,7 +31459,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>110</v>
       </c>
@@ -31515,7 +31518,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>111</v>
       </c>
@@ -31574,7 +31577,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>112</v>
       </c>
@@ -31633,7 +31636,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>113</v>
       </c>
@@ -31692,7 +31695,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>114</v>
       </c>
@@ -31751,7 +31754,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>115</v>
       </c>
@@ -31810,7 +31813,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>116</v>
       </c>
@@ -31869,7 +31872,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>117</v>
       </c>
@@ -31928,7 +31931,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>118</v>
       </c>
@@ -31987,7 +31990,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>119</v>
       </c>
@@ -32046,7 +32049,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>120</v>
       </c>
@@ -32105,7 +32108,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>121</v>
       </c>
@@ -32164,7 +32167,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>122</v>
       </c>
@@ -32223,7 +32226,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>123</v>
       </c>
@@ -32282,7 +32285,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>124</v>
       </c>
@@ -32341,7 +32344,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>125</v>
       </c>
@@ -32400,7 +32403,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>126</v>
       </c>
@@ -32459,7 +32462,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>127</v>
       </c>
@@ -32518,7 +32521,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>128</v>
       </c>
@@ -32577,7 +32580,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="130" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>129</v>
       </c>
@@ -32636,7 +32639,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="131" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>130</v>
       </c>
@@ -32695,7 +32698,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="132" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>131</v>
       </c>
@@ -32754,7 +32757,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="133" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>132</v>
       </c>
@@ -32813,7 +32816,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="134" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>133</v>
       </c>
@@ -32872,7 +32875,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="135" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>134</v>
       </c>
@@ -32931,7 +32934,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="136" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>135</v>
       </c>
@@ -32990,7 +32993,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="137" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>136</v>
       </c>
@@ -33049,7 +33052,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="138" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>137</v>
       </c>
@@ -33108,7 +33111,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="139" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>138</v>
       </c>
@@ -33167,7 +33170,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="140" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>139</v>
       </c>
@@ -33226,7 +33229,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="141" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>140</v>
       </c>
@@ -33285,7 +33288,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="142" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>141</v>
       </c>
@@ -33344,7 +33347,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="143" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>142</v>
       </c>
@@ -33403,7 +33406,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="144" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>143</v>
       </c>
@@ -33462,7 +33465,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="145" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>144</v>
       </c>
@@ -33521,7 +33524,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="146" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>145</v>
       </c>
@@ -33580,7 +33583,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="147" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>146</v>
       </c>
@@ -33639,7 +33642,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="148" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>147</v>
       </c>
@@ -33698,7 +33701,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="149" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>148</v>
       </c>
@@ -33757,7 +33760,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="150" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>149</v>
       </c>
@@ -33816,7 +33819,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="151" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>150</v>
       </c>
@@ -33875,7 +33878,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="152" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
         <v>151</v>
       </c>
@@ -33934,7 +33937,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="153" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
         <v>152</v>
       </c>
@@ -33993,7 +33996,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="154" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
         <v>153</v>
       </c>
@@ -34052,7 +34055,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="155" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
         <v>154</v>
       </c>
@@ -34111,7 +34114,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="156" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>155</v>
       </c>
@@ -34170,7 +34173,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="157" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
         <v>156</v>
       </c>
@@ -34229,7 +34232,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="158" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
         <v>157</v>
       </c>
@@ -34288,7 +34291,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="159" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
         <v>158</v>
       </c>
@@ -34347,7 +34350,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="160" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
         <v>159</v>
       </c>
@@ -34406,7 +34409,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="161" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
         <v>160</v>
       </c>
@@ -34465,7 +34468,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="162" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
         <v>161</v>
       </c>
@@ -34524,7 +34527,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="163" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
         <v>162</v>
       </c>
@@ -34583,7 +34586,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="164" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>163</v>
       </c>
@@ -34642,7 +34645,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="165" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
         <v>164</v>
       </c>
@@ -34701,7 +34704,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="166" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
         <v>165</v>
       </c>
@@ -34760,7 +34763,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="167" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
         <v>166</v>
       </c>
@@ -34819,7 +34822,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="168" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
         <v>167</v>
       </c>
@@ -34878,7 +34881,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="169" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
         <v>168</v>
       </c>
@@ -34937,7 +34940,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="170" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
         <v>169</v>
       </c>
@@ -34996,7 +34999,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="171" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
         <v>170</v>
       </c>
@@ -35069,9 +35072,9 @@
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:171" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:171" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -35248,7 +35251,7 @@
       <c r="FN1" s="1"/>
       <c r="FO1" s="1"/>
     </row>
-    <row r="2" spans="1:171" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:171" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>171</v>
       </c>
@@ -35256,7 +35259,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="3" spans="1:171" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:171" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>172</v>
       </c>
@@ -35264,7 +35267,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="4" spans="1:171" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:171" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>173</v>
       </c>
@@ -35272,7 +35275,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="5" spans="1:171" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:171" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>175</v>
       </c>
@@ -35280,7 +35283,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="6" spans="1:171" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:171" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>176</v>
       </c>
@@ -35288,7 +35291,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="7" spans="1:171" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:171" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>177</v>
       </c>
@@ -35296,7 +35299,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="8" spans="1:171" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:171" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>178</v>
       </c>
@@ -35304,7 +35307,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="9" spans="1:171" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:171" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>179</v>
       </c>
@@ -35312,7 +35315,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="10" spans="1:171" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:171" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>180</v>
       </c>
@@ -35320,7 +35323,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="11" spans="1:171" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:171" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>181</v>
       </c>
@@ -35328,7 +35331,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="12" spans="1:171" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:171" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>182</v>
       </c>
@@ -35336,7 +35339,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="13" spans="1:171" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:171" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>183</v>
       </c>
@@ -35344,7 +35347,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="14" spans="1:171" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:171" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>184</v>
       </c>
@@ -35352,7 +35355,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="15" spans="1:171" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:171" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>185</v>
       </c>
@@ -35360,7 +35363,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="16" spans="1:171" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:171" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>186</v>
       </c>
@@ -35368,7 +35371,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>187</v>
       </c>
@@ -35376,7 +35379,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>188</v>
       </c>
@@ -35384,7 +35387,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>189</v>
       </c>
@@ -35392,460 +35395,460 @@
         <v>376</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" s="1"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" s="1"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" s="1"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" s="1"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" s="1"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" s="1"/>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" s="1"/>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" s="1"/>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" s="1"/>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" s="1"/>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" s="1"/>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" s="1"/>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" s="1"/>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" s="1"/>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" s="1"/>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" s="1"/>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" s="1"/>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85" s="1"/>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" s="1"/>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87" s="1"/>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88" s="1"/>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89" s="1"/>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90" s="1"/>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91" s="1"/>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92" s="1"/>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" s="1"/>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94" s="1"/>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95" s="1"/>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96" s="1"/>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A97" s="1"/>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98" s="1"/>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99" s="1"/>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100" s="1"/>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101" s="1"/>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A102" s="1"/>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A103" s="1"/>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A104" s="1"/>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A105" s="1"/>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A106" s="1"/>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A107" s="1"/>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A108" s="1"/>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A109" s="1"/>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A110" s="1"/>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A111" s="1"/>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A112" s="1"/>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A113" s="1"/>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A114" s="1"/>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A115" s="1"/>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A116" s="1"/>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A117" s="1"/>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A118" s="1"/>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A119" s="1"/>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A120" s="1"/>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A121" s="1"/>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A122" s="1"/>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A123" s="1"/>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A124" s="1"/>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A125" s="1"/>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A126" s="1"/>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A127" s="1"/>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A128" s="1"/>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A129" s="1"/>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A130" s="1"/>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A131" s="1"/>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A132" s="1"/>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A133" s="1"/>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A134" s="1"/>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A135" s="1"/>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A136" s="1"/>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A137" s="1"/>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A138" s="1"/>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A139" s="1"/>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A140" s="1"/>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A141" s="1"/>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A142" s="1"/>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A143" s="1"/>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A144" s="1"/>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A145" s="1"/>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A146" s="1"/>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A147" s="1"/>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A148" s="1"/>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A149" s="1"/>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A150" s="1"/>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A151" s="1"/>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A152" s="1"/>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A153" s="1"/>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A154" s="1"/>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A155" s="1"/>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A156" s="1"/>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A157" s="1"/>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A158" s="1"/>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A159" s="1"/>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A160" s="1"/>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A161" s="1"/>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A162" s="1"/>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A163" s="1"/>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A164" s="1"/>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A165" s="1"/>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A166" s="1"/>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A167" s="1"/>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A168" s="1"/>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A169" s="1"/>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A170" s="1"/>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A171" s="1"/>
     </row>
   </sheetData>
@@ -35861,9 +35864,9 @@
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:171" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:171" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -36378,7 +36381,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="2" spans="1:171" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:171" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>171</v>
       </c>
@@ -36893,7 +36896,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="3" spans="1:171" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:171" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>172</v>
       </c>
@@ -37408,7 +37411,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="4" spans="1:171" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:171" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>173</v>
       </c>
@@ -37923,7 +37926,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="5" spans="1:171" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:171" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>175</v>
       </c>
@@ -38438,7 +38441,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="6" spans="1:171" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:171" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>176</v>
       </c>
@@ -38953,7 +38956,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="7" spans="1:171" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:171" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>177</v>
       </c>
@@ -39468,7 +39471,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="8" spans="1:171" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:171" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>178</v>
       </c>
@@ -39983,7 +39986,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="9" spans="1:171" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:171" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>179</v>
       </c>
@@ -40498,7 +40501,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="10" spans="1:171" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:171" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>180</v>
       </c>
@@ -41013,7 +41016,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="11" spans="1:171" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:171" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>181</v>
       </c>
@@ -41528,7 +41531,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="12" spans="1:171" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:171" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>182</v>
       </c>
@@ -42043,7 +42046,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="13" spans="1:171" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:171" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>183</v>
       </c>
@@ -42558,7 +42561,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="14" spans="1:171" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:171" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>184</v>
       </c>
@@ -43073,7 +43076,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="15" spans="1:171" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:171" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>185</v>
       </c>
@@ -43588,7 +43591,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="16" spans="1:171" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:171" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>186</v>
       </c>
@@ -44103,7 +44106,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="17" spans="1:171" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:171" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>187</v>
       </c>
@@ -44618,7 +44621,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="18" spans="1:171" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:171" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>188</v>
       </c>
@@ -45133,7 +45136,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="19" spans="1:171" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:171" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>189</v>
       </c>
@@ -45648,7 +45651,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="20" spans="1:171" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:171" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>174</v>
       </c>
@@ -45656,7 +45659,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="21" spans="1:171" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:171" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>190</v>
       </c>
@@ -45667,7 +45670,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="22" spans="1:171" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:171" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>191</v>
       </c>
@@ -45681,7 +45684,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="23" spans="1:171" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:171" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>192</v>
       </c>
@@ -45698,7 +45701,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="24" spans="1:171" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:171" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>193</v>
       </c>
@@ -45718,7 +45721,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="25" spans="1:171" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:171" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>194</v>
       </c>
@@ -45741,7 +45744,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="26" spans="1:171" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:171" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>195</v>
       </c>
@@ -45767,7 +45770,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="27" spans="1:171" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:171" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>196</v>
       </c>
@@ -45796,7 +45799,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="28" spans="1:171" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:171" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>197</v>
       </c>
@@ -45828,7 +45831,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="29" spans="1:171" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:171" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>198</v>
       </c>
@@ -45863,7 +45866,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="30" spans="1:171" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:171" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>199</v>
       </c>
@@ -45901,7 +45904,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="31" spans="1:171" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:171" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>200</v>
       </c>
@@ -45942,7 +45945,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="32" spans="1:171" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:171" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>201</v>
       </c>
@@ -45986,7 +45989,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>202</v>
       </c>
@@ -46033,7 +46036,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>203</v>
       </c>
@@ -46083,7 +46086,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>204</v>
       </c>
@@ -46136,7 +46139,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>205</v>
       </c>
@@ -46192,7 +46195,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>206</v>
       </c>
@@ -46251,7 +46254,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>207</v>
       </c>
@@ -46313,7 +46316,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>208</v>
       </c>
@@ -46378,7 +46381,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>209</v>
       </c>
@@ -46386,7 +46389,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>210</v>
       </c>
@@ -46397,7 +46400,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>211</v>
       </c>
@@ -46411,7 +46414,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>212</v>
       </c>
@@ -46428,7 +46431,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>213</v>
       </c>
@@ -46448,7 +46451,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>214</v>
       </c>
@@ -46471,7 +46474,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>215</v>
       </c>
@@ -46497,7 +46500,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>216</v>
       </c>
@@ -46526,7 +46529,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>217</v>
       </c>
@@ -46558,7 +46561,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>218</v>
       </c>
@@ -46593,7 +46596,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>219</v>
       </c>
@@ -46631,7 +46634,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>220</v>
       </c>
@@ -46672,7 +46675,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>221</v>
       </c>
@@ -46716,7 +46719,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>222</v>
       </c>
@@ -46763,7 +46766,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>223</v>
       </c>
@@ -46813,7 +46816,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>224</v>
       </c>
@@ -46866,7 +46869,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>225</v>
       </c>
@@ -46922,7 +46925,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>226</v>
       </c>
@@ -46981,7 +46984,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>227</v>
       </c>
@@ -47043,7 +47046,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>228</v>
       </c>
@@ -47051,7 +47054,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>229</v>
       </c>
@@ -47062,7 +47065,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>230</v>
       </c>
@@ -47076,7 +47079,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>231</v>
       </c>
@@ -47093,7 +47096,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>232</v>
       </c>
@@ -47113,7 +47116,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>233</v>
       </c>
@@ -47136,7 +47139,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>234</v>
       </c>
@@ -47162,7 +47165,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>235</v>
       </c>
@@ -47191,7 +47194,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>236</v>
       </c>
@@ -47223,7 +47226,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>237</v>
       </c>
@@ -47258,7 +47261,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>238</v>
       </c>
@@ -47296,7 +47299,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>239</v>
       </c>
@@ -47337,7 +47340,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>240</v>
       </c>
@@ -47381,7 +47384,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>241</v>
       </c>
@@ -47428,7 +47431,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>242</v>
       </c>
@@ -47478,7 +47481,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>243</v>
       </c>
@@ -47531,7 +47534,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>244</v>
       </c>
@@ -47587,7 +47590,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>245</v>
       </c>
@@ -47646,7 +47649,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>246</v>
       </c>
@@ -47708,7 +47711,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>247</v>
       </c>
@@ -47773,7 +47776,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>248</v>
       </c>
@@ -47841,7 +47844,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>249</v>
       </c>
@@ -47912,7 +47915,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="81" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>250</v>
       </c>
@@ -47986,7 +47989,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="82" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>251</v>
       </c>
@@ -48063,7 +48066,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="83" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>252</v>
       </c>
@@ -48143,7 +48146,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="84" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>253</v>
       </c>
@@ -48226,7 +48229,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="85" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>254</v>
       </c>
@@ -48234,7 +48237,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="86" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>255</v>
       </c>
@@ -48245,7 +48248,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="87" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>256</v>
       </c>
@@ -48259,7 +48262,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="88" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>257</v>
       </c>
@@ -48276,7 +48279,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="89" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>258</v>
       </c>
@@ -48296,7 +48299,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="90" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>259</v>
       </c>
@@ -48319,7 +48322,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="91" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>260</v>
       </c>
@@ -48345,7 +48348,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="92" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>261</v>
       </c>
@@ -48374,7 +48377,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="93" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>262</v>
       </c>
@@ -48406,7 +48409,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="94" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>263</v>
       </c>
@@ -48441,7 +48444,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="95" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>264</v>
       </c>
@@ -48479,7 +48482,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="96" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>265</v>
       </c>
@@ -48520,7 +48523,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>266</v>
       </c>
@@ -48564,7 +48567,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>267</v>
       </c>
@@ -48611,7 +48614,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>268</v>
       </c>
@@ -48661,7 +48664,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>269</v>
       </c>
@@ -48714,7 +48717,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>270</v>
       </c>
@@ -48770,7 +48773,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>271</v>
       </c>
@@ -48829,7 +48832,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>272</v>
       </c>
@@ -48891,7 +48894,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>273</v>
       </c>
@@ -48956,7 +48959,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>274</v>
       </c>
@@ -48964,7 +48967,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>275</v>
       </c>
@@ -48975,7 +48978,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>276</v>
       </c>
@@ -48989,7 +48992,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>277</v>
       </c>
@@ -49006,7 +49009,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>278</v>
       </c>
@@ -49026,7 +49029,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>279</v>
       </c>
@@ -49049,7 +49052,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>280</v>
       </c>
@@ -49075,7 +49078,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>281</v>
       </c>
@@ -49104,7 +49107,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>282</v>
       </c>
@@ -49136,7 +49139,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>283</v>
       </c>
@@ -49171,7 +49174,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>284</v>
       </c>
@@ -49209,7 +49212,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>285</v>
       </c>
@@ -49250,7 +49253,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>286</v>
       </c>
@@ -49294,7 +49297,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>287</v>
       </c>
@@ -49341,7 +49344,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>288</v>
       </c>
@@ -49391,7 +49394,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>289</v>
       </c>
@@ -49444,7 +49447,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>290</v>
       </c>
@@ -49500,7 +49503,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>291</v>
       </c>
@@ -49559,7 +49562,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>292</v>
       </c>
@@ -49621,7 +49624,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>293</v>
       </c>
@@ -49686,7 +49689,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>294</v>
       </c>
@@ -49694,7 +49697,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>295</v>
       </c>
@@ -49705,7 +49708,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="127" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>296</v>
       </c>
@@ -49719,7 +49722,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>297</v>
       </c>
@@ -49736,7 +49739,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="129" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>298</v>
       </c>
@@ -49756,7 +49759,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="130" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>299</v>
       </c>
@@ -49779,7 +49782,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="131" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>300</v>
       </c>
@@ -49805,7 +49808,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="132" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>301</v>
       </c>
@@ -49834,7 +49837,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="133" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>302</v>
       </c>
@@ -49866,7 +49869,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="134" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>303</v>
       </c>
@@ -49901,7 +49904,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="135" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>304</v>
       </c>
@@ -49939,7 +49942,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="136" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>305</v>
       </c>
@@ -49980,7 +49983,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="137" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>306</v>
       </c>
@@ -50024,7 +50027,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="138" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>307</v>
       </c>
@@ -50074,7 +50077,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="139" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>308</v>
       </c>
@@ -50127,7 +50130,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="140" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>309</v>
       </c>
@@ -50183,7 +50186,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="141" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>310</v>
       </c>
@@ -50242,7 +50245,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="142" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>311</v>
       </c>
@@ -50304,7 +50307,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="143" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>312</v>
       </c>
@@ -50312,7 +50315,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="144" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>313</v>
       </c>
@@ -50323,7 +50326,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="145" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>314</v>
       </c>
@@ -50337,7 +50340,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="146" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>315</v>
       </c>
@@ -50354,7 +50357,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="147" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>316</v>
       </c>
@@ -50374,7 +50377,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="148" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>317</v>
       </c>
@@ -50397,7 +50400,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="149" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>318</v>
       </c>
@@ -50423,7 +50426,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="150" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>319</v>
       </c>
@@ -50452,7 +50455,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="151" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>320</v>
       </c>
@@ -50484,7 +50487,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="152" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>321</v>
       </c>
@@ -50519,7 +50522,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="153" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>322</v>
       </c>
@@ -50557,7 +50560,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="154" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>323</v>
       </c>
@@ -50598,7 +50601,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="155" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>324</v>
       </c>
@@ -50642,7 +50645,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="156" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>325</v>
       </c>
@@ -50689,7 +50692,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="157" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>326</v>
       </c>
@@ -50739,7 +50742,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="158" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>327</v>
       </c>
@@ -50792,7 +50795,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="159" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>328</v>
       </c>
@@ -50848,7 +50851,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="160" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>329</v>
       </c>
@@ -50907,7 +50910,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="161" spans="1:139" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>330</v>
       </c>
@@ -50969,7 +50972,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="162" spans="1:139" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>331</v>
       </c>
@@ -51034,7 +51037,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="163" spans="1:139" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>332</v>
       </c>
@@ -51045,7 +51048,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="164" spans="1:139" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>333</v>
       </c>
@@ -51059,7 +51062,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="165" spans="1:139" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>334</v>
       </c>
@@ -51076,7 +51079,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="166" spans="1:139" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>335</v>
       </c>
@@ -51087,7 +51090,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="167" spans="1:139" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>336</v>
       </c>
@@ -51110,7 +51113,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="168" spans="1:139" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>337</v>
       </c>
@@ -51133,7 +51136,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="169" spans="1:139" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>338</v>
       </c>
@@ -51171,7 +51174,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="170" spans="1:139" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>339</v>
       </c>
@@ -51218,7 +51221,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="171" spans="1:139" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>340</v>
       </c>
@@ -51268,7 +51271,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="172" spans="1:139" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>341</v>
       </c>
@@ -51321,7 +51324,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="173" spans="1:139" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>342</v>
       </c>
@@ -51377,7 +51380,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="174" spans="1:139" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>343</v>
       </c>
@@ -51436,7 +51439,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="175" spans="1:139" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>344</v>
       </c>
@@ -51498,7 +51501,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="176" spans="1:139" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:139" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>345</v>
       </c>
@@ -51563,7 +51566,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="177" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:151" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>346</v>
       </c>
@@ -51631,7 +51634,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="178" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:151" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>347</v>
       </c>
@@ -51702,7 +51705,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="179" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:151" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>348</v>
       </c>
@@ -51776,7 +51779,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="180" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:151" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>349</v>
       </c>
@@ -51853,7 +51856,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="181" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:151" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>350</v>
       </c>
@@ -51933,7 +51936,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="182" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:151" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>351</v>
       </c>
@@ -51959,7 +51962,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="183" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:151" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>352</v>
       </c>
@@ -51988,7 +51991,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="184" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:151" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>353</v>
       </c>
@@ -52020,7 +52023,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="185" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:151" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>354</v>
       </c>
@@ -52055,7 +52058,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="186" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:151" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>355</v>
       </c>
@@ -52093,7 +52096,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="187" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:151" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>356</v>
       </c>
@@ -52134,7 +52137,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="188" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:151" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>357</v>
       </c>
